--- a/populationcounts.xlsx
+++ b/populationcounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6640" yWindow="0" windowWidth="9680" windowHeight="10260" tabRatio="500"/>
+    <workbookView xWindow="6340" yWindow="620" windowWidth="17500" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -27,17 +27,42 @@
     <t>pairs</t>
   </si>
   <si>
-    <t>additional estimated</t>
+    <t>nestling</t>
+  </si>
+  <si>
+    <t>unknowns are assumed 50% survival</t>
+  </si>
+  <si>
+    <t>fledglings banded</t>
+  </si>
+  <si>
+    <t>fledglings radiotagged</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,13 +85,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,15 +433,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,60 +451,150 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B3">
+      <c r="B10">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B4">
+      <c r="B16">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="17" spans="1:5">
+      <c r="A17">
         <v>2015</v>
       </c>
-      <c r="B5">
+      <c r="B17">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
         <v>2016</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>2017</v>
       </c>
-      <c r="B7">
+      <c r="B19">
         <v>52</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/populationcounts.xlsx
+++ b/populationcounts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="620" windowWidth="17500" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="5160" yWindow="600" windowWidth="18760" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,31 +19,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>pairs</t>
-  </si>
-  <si>
     <t>nestling</t>
   </si>
   <si>
-    <t>unknowns are assumed 50% survival</t>
-  </si>
-  <si>
-    <t>fledglings banded</t>
-  </si>
-  <si>
-    <t>fledglings radiotagged</t>
+    <t># born</t>
+  </si>
+  <si>
+    <t>survival nestling to fledgling</t>
+  </si>
+  <si>
+    <t>survival radio-tagged fledgling</t>
+  </si>
+  <si>
+    <t>unknowns are assumed 50% survival, conservatively</t>
+  </si>
+  <si>
+    <t>survival banded fledgelings</t>
+  </si>
+  <si>
+    <t># fledglings alive banded</t>
+  </si>
+  <si>
+    <t># fledglings alive radiotagged</t>
+  </si>
+  <si>
+    <t># pairs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -85,26 +104,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -433,32 +468,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -466,42 +518,42 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>2002</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>2003</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>2005</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>2006</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -509,41 +561,53 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>2009</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>2011</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -551,45 +615,88 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:10">
       <c r="A17">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
         <v>2015</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>50</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="G18">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <f>(G18-6)/G18</f>
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18">
+        <f>16/23</f>
+        <v>0.69565217391304346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
         <v>2016</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>53</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="G19">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <f>(G19-10)/G19</f>
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="J19">
+        <f>7/16</f>
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
         <v>2017</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>52</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>3</v>
+      <c r="G20">
+        <v>41</v>
+      </c>
+      <c r="H20">
+        <f>(G20-11)/G20</f>
+        <v>0.73170731707317072</v>
+      </c>
+      <c r="I20">
+        <f>9/12</f>
+        <v>0.75</v>
+      </c>
+      <c r="J20">
+        <f>4/17</f>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
